--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="912" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48284E03-0594-4B3E-9F1B-8779B13CB733}"/>
+  <xr:revisionPtr revIDLastSave="913" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{383514E2-8CAA-42C6-801C-EDE9C00BBB55}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -1610,9 +1610,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2741,7 +2741,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="36" hidden="1" x14ac:dyDescent="0.2">

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="913" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{383514E2-8CAA-42C6-801C-EDE9C00BBB55}"/>
+  <xr:revisionPtr revIDLastSave="940" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{113B0C79-B131-4440-AE92-6A98EE23B813}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="341">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1113,6 +1113,17 @@
 3) Teste post hoc de Dunnett
 4) Correlação (Spearman)
 5) Razão de taxas</t>
+  </si>
+  <si>
+    <t>1) Análise descritiva
+2) Correlação linear</t>
+  </si>
+  <si>
+    <t>1) Regressão linear</t>
+  </si>
+  <si>
+    <t>1) Estatística descritiva
+2) Correlação de Spearman</t>
   </si>
 </sst>
 </file>
@@ -1607,12 +1618,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE712DB-CC69-4EE6-896B-656C736DF159}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1680,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
@@ -1699,9 +1709,11 @@
       <c r="J2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -1768,7 +1780,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>240</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>72</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
@@ -1946,7 +1958,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -1984,7 +1996,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
@@ -2020,7 +2032,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -2045,13 +2057,20 @@
       <c r="H12" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>339</v>
+      </c>
       <c r="J12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>256</v>
       </c>
@@ -2087,7 +2106,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
@@ -2118,7 +2137,7 @@
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>236</v>
       </c>
@@ -2143,10 +2162,18 @@
       <c r="H15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="16" t="s">
+        <v>340</v>
+      </c>
       <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>121</v>
       </c>
@@ -2177,7 +2204,7 @@
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2213,7 +2240,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2309,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>243</v>
       </c>
@@ -2310,7 +2337,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
@@ -2348,7 +2375,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>100</v>
       </c>
@@ -2379,7 +2406,7 @@
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>88</v>
       </c>
@@ -2417,7 +2444,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -2448,7 +2475,7 @@
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -2486,7 +2513,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>113</v>
       </c>
@@ -2517,7 +2544,7 @@
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>96</v>
       </c>
@@ -2548,7 +2575,7 @@
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
@@ -2584,7 +2611,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>118</v>
       </c>
@@ -2640,13 +2667,18 @@
       <c r="H30" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="16" t="s">
+        <v>338</v>
+      </c>
       <c r="J30" s="18"/>
       <c r="K30" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>264</v>
       </c>
@@ -2744,7 +2776,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>281</v>
       </c>
@@ -2772,7 +2804,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:11" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>288</v>
       </c>
@@ -2800,7 +2832,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>294</v>
       </c>
@@ -2828,7 +2860,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:11" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>306</v>
       </c>
@@ -2856,7 +2888,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>314</v>
       </c>
@@ -2884,7 +2916,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>321</v>
       </c>
@@ -5169,16 +5201,7 @@
       <c r="J227" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="A2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K227">
     <sortCondition ref="A2:A227"/>
   </sortState>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="940" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{113B0C79-B131-4440-AE92-6A98EE23B813}"/>
+  <xr:revisionPtr revIDLastSave="974" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4AD7CD2-1312-40FD-832C-AFD00229568E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="344">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1124,6 +1124,23 @@
   <si>
     <t>1) Estatística descritiva
 2) Correlação de Spearman</t>
+  </si>
+  <si>
+    <t>Revista Epidemiologia e Serviços de Saúde</t>
+  </si>
+  <si>
+    <t>1) Estatística descritiva
+2) Teste Qui-Quadrado
+3) Regressão de Poisson
+4) Regressão Binomial Negativa
+5) Imputação múltipla
+6) Razão de taxas</t>
+  </si>
+  <si>
+    <t>1) Regressão de Poisson
+2) Regressão Binomial Negativa
+3) Razão de médias
+4) Coeficiente de correlação de Spearman</t>
   </si>
 </sst>
 </file>
@@ -1621,8 +1638,8 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1925,7 +1942,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
@@ -1950,12 +1967,17 @@
       <c r="H9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="16" t="s">
+        <v>342</v>
+      </c>
       <c r="J9" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>134</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.2">
@@ -2452,10 +2474,10 @@
         <v>106</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>107</v>
@@ -2469,11 +2491,18 @@
       <c r="H24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="16"/>
+      <c r="I24" s="16" t="s">
+        <v>327</v>
+      </c>
       <c r="J24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="15"/>
+      <c r="K24" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
@@ -2611,7 +2640,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>118</v>
       </c>
@@ -2636,11 +2665,18 @@
       <c r="H29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="16" t="s">
+        <v>343</v>
+      </c>
       <c r="J29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="15"/>
+      <c r="K29" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="974" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4AD7CD2-1312-40FD-832C-AFD00229568E}"/>
+  <xr:revisionPtr revIDLastSave="980" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B4C5F94-B777-4011-A4F6-A8C4F7014C5C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="346">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1141,6 +1141,13 @@
 2) Regressão Binomial Negativa
 3) Razão de médias
 4) Coeficiente de correlação de Spearman</t>
+  </si>
+  <si>
+    <t>1) Estatística descritiva</t>
+  </si>
+  <si>
+    <t>1) Razão de coeficientes
+2) Padronização de coeficientes e Razão de Morbidade Esperada (RMI)</t>
   </si>
 </sst>
 </file>
@@ -1635,11 +1642,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE712DB-CC69-4EE6-896B-656C736DF159}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1730,7 +1738,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -1797,7 +1805,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>240</v>
       </c>
@@ -1835,7 +1843,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>72</v>
       </c>
@@ -1873,7 +1881,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
@@ -1980,7 +1988,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
@@ -2054,7 +2062,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>256</v>
       </c>
@@ -2159,7 +2167,7 @@
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>236</v>
       </c>
@@ -2226,7 +2234,7 @@
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2262,7 +2270,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2367,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
@@ -2428,7 +2436,7 @@
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>88</v>
       </c>
@@ -2466,7 +2474,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -2504,7 +2512,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -2604,7 +2612,7 @@
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="108" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
@@ -2640,7 +2648,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>118</v>
       </c>
@@ -2678,7 +2686,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>261</v>
       </c>
@@ -2714,7 +2722,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>264</v>
       </c>
@@ -2896,7 +2904,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>306</v>
       </c>
@@ -2921,8 +2929,13 @@
       <c r="H37" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="I37" s="16"/>
+      <c r="I37" s="16" t="s">
+        <v>345</v>
+      </c>
       <c r="J37" s="18"/>
+      <c r="K37" s="18" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
@@ -2949,8 +2962,13 @@
       <c r="H38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="16"/>
+      <c r="I38" s="16" t="s">
+        <v>344</v>
+      </c>
       <c r="J38" s="18"/>
+      <c r="K38" s="18" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
@@ -5237,7 +5255,11 @@
       <c r="J227" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}"/>
+  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}">
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K227">
     <sortCondition ref="A2:A227"/>
   </sortState>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://senadofederal-my.sharepoint.com/personal/rolf_senado_leg_br/Documents/Projetos R/icsap/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="980" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B4C5F94-B777-4011-A4F6-A8C4F7014C5C}"/>
+  <xr:revisionPtr revIDLastSave="983" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EB06F5D6-2655-4924-9261-6CB43457A218}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
   <sheets>
     <sheet name="BUSCA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3447" uniqueCount="346">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1597,13 +1597,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1645,29 +1645,29 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="15" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" style="15" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="18"/>
-    <col min="12" max="12" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
+    <col min="8" max="8" width="16.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="18"/>
+    <col min="12" max="12" width="14.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>240</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>72</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>109</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>256</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>236</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>121</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>252</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>243</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>100</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>88</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>113</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>96</v>
       </c>
@@ -2610,9 +2610,11 @@
       <c r="J27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>118</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>261</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>264</v>
       </c>
@@ -2758,7 +2760,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>270</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>276</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>281</v>
       </c>
@@ -2848,7 +2850,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="96" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>288</v>
       </c>
@@ -2876,7 +2878,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>294</v>
       </c>
@@ -2904,7 +2906,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>306</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>314</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>321</v>
       </c>
@@ -2998,7 +3000,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -3010,7 +3012,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -3022,7 +3024,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -3034,7 +3036,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -3046,7 +3048,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -3058,7 +3060,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -3070,7 +3072,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -3082,7 +3084,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -3094,7 +3096,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -3106,7 +3108,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -3118,7 +3120,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="18"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -3130,7 +3132,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -3142,7 +3144,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="18"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -3154,7 +3156,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="18"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -3166,7 +3168,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="18"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -3178,7 +3180,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -3190,7 +3192,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -3202,7 +3204,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="18"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -3214,7 +3216,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="18"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -3226,7 +3228,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="18"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -3238,7 +3240,7 @@
       <c r="I59" s="16"/>
       <c r="J59" s="18"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -3250,7 +3252,7 @@
       <c r="I60" s="16"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -3262,7 +3264,7 @@
       <c r="I61" s="16"/>
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -3274,7 +3276,7 @@
       <c r="I62" s="16"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -3286,7 +3288,7 @@
       <c r="I63" s="16"/>
       <c r="J63" s="18"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -3298,7 +3300,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="18"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -3310,7 +3312,7 @@
       <c r="I65" s="16"/>
       <c r="J65" s="18"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -3322,7 +3324,7 @@
       <c r="I66" s="16"/>
       <c r="J66" s="18"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -3334,7 +3336,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="18"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -3346,7 +3348,7 @@
       <c r="I68" s="16"/>
       <c r="J68" s="18"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -3358,7 +3360,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="18"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -3370,7 +3372,7 @@
       <c r="I70" s="16"/>
       <c r="J70" s="18"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -3382,7 +3384,7 @@
       <c r="I71" s="16"/>
       <c r="J71" s="18"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -3394,7 +3396,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="18"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -3406,7 +3408,7 @@
       <c r="I73" s="16"/>
       <c r="J73" s="18"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -3418,7 +3420,7 @@
       <c r="I74" s="16"/>
       <c r="J74" s="18"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -3430,7 +3432,7 @@
       <c r="I75" s="16"/>
       <c r="J75" s="18"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -3442,7 +3444,7 @@
       <c r="I76" s="16"/>
       <c r="J76" s="18"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -3454,7 +3456,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="18"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -3466,7 +3468,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="18"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -3478,7 +3480,7 @@
       <c r="I79" s="16"/>
       <c r="J79" s="18"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -3490,7 +3492,7 @@
       <c r="I80" s="16"/>
       <c r="J80" s="18"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -3502,7 +3504,7 @@
       <c r="I81" s="16"/>
       <c r="J81" s="18"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -3514,7 +3516,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="18"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -3526,7 +3528,7 @@
       <c r="I83" s="16"/>
       <c r="J83" s="18"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -3538,7 +3540,7 @@
       <c r="I84" s="16"/>
       <c r="J84" s="18"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -3550,7 +3552,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="18"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -3562,7 +3564,7 @@
       <c r="I86" s="16"/>
       <c r="J86" s="18"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -3574,7 +3576,7 @@
       <c r="I87" s="16"/>
       <c r="J87" s="18"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -3586,7 +3588,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="18"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -3598,7 +3600,7 @@
       <c r="I89" s="16"/>
       <c r="J89" s="18"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -3610,7 +3612,7 @@
       <c r="I90" s="16"/>
       <c r="J90" s="18"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -3622,7 +3624,7 @@
       <c r="I91" s="16"/>
       <c r="J91" s="18"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -3634,7 +3636,7 @@
       <c r="I92" s="16"/>
       <c r="J92" s="18"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -3646,7 +3648,7 @@
       <c r="I93" s="16"/>
       <c r="J93" s="18"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -3658,7 +3660,7 @@
       <c r="I94" s="16"/>
       <c r="J94" s="18"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -3670,7 +3672,7 @@
       <c r="I95" s="16"/>
       <c r="J95" s="18"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -3682,7 +3684,7 @@
       <c r="I96" s="16"/>
       <c r="J96" s="18"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -3694,7 +3696,7 @@
       <c r="I97" s="16"/>
       <c r="J97" s="18"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -3706,7 +3708,7 @@
       <c r="I98" s="16"/>
       <c r="J98" s="18"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -3718,7 +3720,7 @@
       <c r="I99" s="16"/>
       <c r="J99" s="18"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -3730,7 +3732,7 @@
       <c r="I100" s="16"/>
       <c r="J100" s="18"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -3742,7 +3744,7 @@
       <c r="I101" s="16"/>
       <c r="J101" s="18"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -3754,7 +3756,7 @@
       <c r="I102" s="16"/>
       <c r="J102" s="18"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -3766,7 +3768,7 @@
       <c r="I103" s="16"/>
       <c r="J103" s="18"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -3778,7 +3780,7 @@
       <c r="I104" s="16"/>
       <c r="J104" s="18"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -3790,7 +3792,7 @@
       <c r="I105" s="16"/>
       <c r="J105" s="18"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -3802,7 +3804,7 @@
       <c r="I106" s="16"/>
       <c r="J106" s="18"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -3814,7 +3816,7 @@
       <c r="I107" s="16"/>
       <c r="J107" s="18"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -3826,7 +3828,7 @@
       <c r="I108" s="16"/>
       <c r="J108" s="18"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -3838,7 +3840,7 @@
       <c r="I109" s="16"/>
       <c r="J109" s="18"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -3850,7 +3852,7 @@
       <c r="I110" s="16"/>
       <c r="J110" s="18"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -3862,7 +3864,7 @@
       <c r="I111" s="16"/>
       <c r="J111" s="18"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -3874,7 +3876,7 @@
       <c r="I112" s="16"/>
       <c r="J112" s="18"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -3886,7 +3888,7 @@
       <c r="I113" s="16"/>
       <c r="J113" s="18"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -3898,7 +3900,7 @@
       <c r="I114" s="16"/>
       <c r="J114" s="18"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -3910,7 +3912,7 @@
       <c r="I115" s="16"/>
       <c r="J115" s="18"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -3922,7 +3924,7 @@
       <c r="I116" s="16"/>
       <c r="J116" s="18"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -3934,7 +3936,7 @@
       <c r="I117" s="16"/>
       <c r="J117" s="18"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -3946,7 +3948,7 @@
       <c r="I118" s="16"/>
       <c r="J118" s="18"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -3958,7 +3960,7 @@
       <c r="I119" s="16"/>
       <c r="J119" s="18"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -3970,7 +3972,7 @@
       <c r="I120" s="16"/>
       <c r="J120" s="18"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -3982,7 +3984,7 @@
       <c r="I121" s="16"/>
       <c r="J121" s="18"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -3994,7 +3996,7 @@
       <c r="I122" s="16"/>
       <c r="J122" s="18"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -4006,7 +4008,7 @@
       <c r="I123" s="16"/>
       <c r="J123" s="18"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -4018,7 +4020,7 @@
       <c r="I124" s="16"/>
       <c r="J124" s="18"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -4030,7 +4032,7 @@
       <c r="I125" s="16"/>
       <c r="J125" s="18"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
@@ -4042,7 +4044,7 @@
       <c r="I126" s="16"/>
       <c r="J126" s="18"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -4054,7 +4056,7 @@
       <c r="I127" s="16"/>
       <c r="J127" s="18"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -4066,7 +4068,7 @@
       <c r="I128" s="16"/>
       <c r="J128" s="18"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -4078,7 +4080,7 @@
       <c r="I129" s="16"/>
       <c r="J129" s="18"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -4090,7 +4092,7 @@
       <c r="I130" s="16"/>
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -4102,7 +4104,7 @@
       <c r="I131" s="16"/>
       <c r="J131" s="18"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -4114,7 +4116,7 @@
       <c r="I132" s="16"/>
       <c r="J132" s="18"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -4126,7 +4128,7 @@
       <c r="I133" s="16"/>
       <c r="J133" s="18"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -4138,7 +4140,7 @@
       <c r="I134" s="16"/>
       <c r="J134" s="18"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -4150,7 +4152,7 @@
       <c r="I135" s="16"/>
       <c r="J135" s="18"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -4162,7 +4164,7 @@
       <c r="I136" s="16"/>
       <c r="J136" s="18"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -4174,7 +4176,7 @@
       <c r="I137" s="16"/>
       <c r="J137" s="18"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -4186,7 +4188,7 @@
       <c r="I138" s="16"/>
       <c r="J138" s="18"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -4198,7 +4200,7 @@
       <c r="I139" s="16"/>
       <c r="J139" s="18"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -4210,7 +4212,7 @@
       <c r="I140" s="16"/>
       <c r="J140" s="18"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -4222,7 +4224,7 @@
       <c r="I141" s="16"/>
       <c r="J141" s="18"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -4234,7 +4236,7 @@
       <c r="I142" s="16"/>
       <c r="J142" s="18"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -4246,7 +4248,7 @@
       <c r="I143" s="16"/>
       <c r="J143" s="18"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
@@ -4258,7 +4260,7 @@
       <c r="I144" s="16"/>
       <c r="J144" s="18"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -4270,7 +4272,7 @@
       <c r="I145" s="16"/>
       <c r="J145" s="18"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -4282,7 +4284,7 @@
       <c r="I146" s="16"/>
       <c r="J146" s="18"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -4294,7 +4296,7 @@
       <c r="I147" s="16"/>
       <c r="J147" s="18"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -4306,7 +4308,7 @@
       <c r="I148" s="16"/>
       <c r="J148" s="18"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -4318,7 +4320,7 @@
       <c r="I149" s="16"/>
       <c r="J149" s="18"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -4330,7 +4332,7 @@
       <c r="I150" s="16"/>
       <c r="J150" s="18"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -4342,7 +4344,7 @@
       <c r="I151" s="16"/>
       <c r="J151" s="18"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -4354,7 +4356,7 @@
       <c r="I152" s="16"/>
       <c r="J152" s="18"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -4366,7 +4368,7 @@
       <c r="I153" s="16"/>
       <c r="J153" s="18"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -4378,7 +4380,7 @@
       <c r="I154" s="16"/>
       <c r="J154" s="18"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -4390,7 +4392,7 @@
       <c r="I155" s="16"/>
       <c r="J155" s="18"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
@@ -4402,7 +4404,7 @@
       <c r="I156" s="16"/>
       <c r="J156" s="18"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -4414,7 +4416,7 @@
       <c r="I157" s="16"/>
       <c r="J157" s="18"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -4426,7 +4428,7 @@
       <c r="I158" s="16"/>
       <c r="J158" s="18"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -4438,7 +4440,7 @@
       <c r="I159" s="16"/>
       <c r="J159" s="18"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
@@ -4450,7 +4452,7 @@
       <c r="I160" s="16"/>
       <c r="J160" s="18"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
@@ -4462,7 +4464,7 @@
       <c r="I161" s="16"/>
       <c r="J161" s="18"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -4474,7 +4476,7 @@
       <c r="I162" s="16"/>
       <c r="J162" s="18"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -4486,7 +4488,7 @@
       <c r="I163" s="16"/>
       <c r="J163" s="18"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
@@ -4498,7 +4500,7 @@
       <c r="I164" s="16"/>
       <c r="J164" s="18"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
@@ -4510,7 +4512,7 @@
       <c r="I165" s="16"/>
       <c r="J165" s="18"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
@@ -4522,7 +4524,7 @@
       <c r="I166" s="16"/>
       <c r="J166" s="18"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
@@ -4534,7 +4536,7 @@
       <c r="I167" s="16"/>
       <c r="J167" s="18"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
@@ -4546,7 +4548,7 @@
       <c r="I168" s="16"/>
       <c r="J168" s="18"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
@@ -4558,7 +4560,7 @@
       <c r="I169" s="16"/>
       <c r="J169" s="18"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
@@ -4570,7 +4572,7 @@
       <c r="I170" s="16"/>
       <c r="J170" s="18"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -4582,7 +4584,7 @@
       <c r="I171" s="16"/>
       <c r="J171" s="18"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -4594,7 +4596,7 @@
       <c r="I172" s="16"/>
       <c r="J172" s="18"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -4606,7 +4608,7 @@
       <c r="I173" s="16"/>
       <c r="J173" s="18"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -4618,7 +4620,7 @@
       <c r="I174" s="16"/>
       <c r="J174" s="18"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
@@ -4630,7 +4632,7 @@
       <c r="I175" s="16"/>
       <c r="J175" s="18"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
@@ -4642,7 +4644,7 @@
       <c r="I176" s="16"/>
       <c r="J176" s="18"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
@@ -4654,7 +4656,7 @@
       <c r="I177" s="16"/>
       <c r="J177" s="18"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
@@ -4666,7 +4668,7 @@
       <c r="I178" s="16"/>
       <c r="J178" s="18"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
@@ -4678,7 +4680,7 @@
       <c r="I179" s="16"/>
       <c r="J179" s="18"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
@@ -4690,7 +4692,7 @@
       <c r="I180" s="16"/>
       <c r="J180" s="18"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
@@ -4702,7 +4704,7 @@
       <c r="I181" s="16"/>
       <c r="J181" s="18"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
@@ -4714,7 +4716,7 @@
       <c r="I182" s="16"/>
       <c r="J182" s="18"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
@@ -4726,7 +4728,7 @@
       <c r="I183" s="16"/>
       <c r="J183" s="18"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="16"/>
       <c r="C184" s="16"/>
@@ -4738,7 +4740,7 @@
       <c r="I184" s="16"/>
       <c r="J184" s="18"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
@@ -4750,7 +4752,7 @@
       <c r="I185" s="16"/>
       <c r="J185" s="18"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
@@ -4762,7 +4764,7 @@
       <c r="I186" s="16"/>
       <c r="J186" s="18"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
@@ -4774,7 +4776,7 @@
       <c r="I187" s="16"/>
       <c r="J187" s="18"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
@@ -4786,7 +4788,7 @@
       <c r="I188" s="16"/>
       <c r="J188" s="18"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
@@ -4798,7 +4800,7 @@
       <c r="I189" s="16"/>
       <c r="J189" s="18"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
@@ -4810,7 +4812,7 @@
       <c r="I190" s="16"/>
       <c r="J190" s="18"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
@@ -4822,7 +4824,7 @@
       <c r="I191" s="16"/>
       <c r="J191" s="18"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
@@ -4834,7 +4836,7 @@
       <c r="I192" s="16"/>
       <c r="J192" s="18"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
@@ -4846,7 +4848,7 @@
       <c r="I193" s="16"/>
       <c r="J193" s="18"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
@@ -4858,7 +4860,7 @@
       <c r="I194" s="16"/>
       <c r="J194" s="18"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="16"/>
       <c r="C195" s="16"/>
@@ -4870,7 +4872,7 @@
       <c r="I195" s="16"/>
       <c r="J195" s="18"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
@@ -4882,7 +4884,7 @@
       <c r="I196" s="16"/>
       <c r="J196" s="18"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
@@ -4894,7 +4896,7 @@
       <c r="I197" s="16"/>
       <c r="J197" s="18"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
@@ -4906,7 +4908,7 @@
       <c r="I198" s="16"/>
       <c r="J198" s="18"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
@@ -4918,7 +4920,7 @@
       <c r="I199" s="16"/>
       <c r="J199" s="18"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
@@ -4930,7 +4932,7 @@
       <c r="I200" s="16"/>
       <c r="J200" s="18"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="16"/>
       <c r="C201" s="16"/>
@@ -4942,7 +4944,7 @@
       <c r="I201" s="16"/>
       <c r="J201" s="18"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" s="16"/>
       <c r="C202" s="16"/>
@@ -4954,7 +4956,7 @@
       <c r="I202" s="16"/>
       <c r="J202" s="18"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" s="16"/>
       <c r="C203" s="16"/>
@@ -4966,7 +4968,7 @@
       <c r="I203" s="16"/>
       <c r="J203" s="18"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
@@ -4978,7 +4980,7 @@
       <c r="I204" s="16"/>
       <c r="J204" s="18"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
       <c r="B205" s="16"/>
       <c r="C205" s="16"/>
@@ -4990,7 +4992,7 @@
       <c r="I205" s="16"/>
       <c r="J205" s="18"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
@@ -5002,7 +5004,7 @@
       <c r="I206" s="16"/>
       <c r="J206" s="18"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="14"/>
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
@@ -5014,7 +5016,7 @@
       <c r="I207" s="16"/>
       <c r="J207" s="18"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
@@ -5026,7 +5028,7 @@
       <c r="I208" s="16"/>
       <c r="J208" s="18"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
@@ -5038,7 +5040,7 @@
       <c r="I209" s="16"/>
       <c r="J209" s="18"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
@@ -5050,7 +5052,7 @@
       <c r="I210" s="16"/>
       <c r="J210" s="18"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
@@ -5062,7 +5064,7 @@
       <c r="I211" s="16"/>
       <c r="J211" s="18"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
       <c r="B212" s="16"/>
       <c r="C212" s="16"/>
@@ -5074,7 +5076,7 @@
       <c r="I212" s="16"/>
       <c r="J212" s="18"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
@@ -5086,7 +5088,7 @@
       <c r="I213" s="16"/>
       <c r="J213" s="18"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>
@@ -5098,7 +5100,7 @@
       <c r="I214" s="16"/>
       <c r="J214" s="18"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
@@ -5110,7 +5112,7 @@
       <c r="I215" s="16"/>
       <c r="J215" s="18"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
@@ -5122,7 +5124,7 @@
       <c r="I216" s="16"/>
       <c r="J216" s="18"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
@@ -5134,7 +5136,7 @@
       <c r="I217" s="16"/>
       <c r="J217" s="18"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
@@ -5146,7 +5148,7 @@
       <c r="I218" s="16"/>
       <c r="J218" s="18"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="16"/>
       <c r="C219" s="16"/>
@@ -5158,7 +5160,7 @@
       <c r="I219" s="16"/>
       <c r="J219" s="18"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
       <c r="B220" s="16"/>
       <c r="C220" s="16"/>
@@ -5170,7 +5172,7 @@
       <c r="I220" s="16"/>
       <c r="J220" s="18"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
       <c r="B221" s="16"/>
       <c r="C221" s="16"/>
@@ -5182,7 +5184,7 @@
       <c r="I221" s="16"/>
       <c r="J221" s="18"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="16"/>
       <c r="C222" s="16"/>
@@ -5194,7 +5196,7 @@
       <c r="I222" s="16"/>
       <c r="J222" s="18"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
       <c r="B223" s="16"/>
       <c r="C223" s="16"/>
@@ -5206,7 +5208,7 @@
       <c r="I223" s="16"/>
       <c r="J223" s="18"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
       <c r="B224" s="16"/>
       <c r="C224" s="16"/>
@@ -5218,7 +5220,7 @@
       <c r="I224" s="16"/>
       <c r="J224" s="18"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
       <c r="B225" s="16"/>
       <c r="C225" s="16"/>
@@ -5230,7 +5232,7 @@
       <c r="I225" s="16"/>
       <c r="J225" s="18"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
       <c r="B226" s="16"/>
       <c r="C226" s="16"/>
@@ -5242,7 +5244,7 @@
       <c r="I226" s="16"/>
       <c r="J226" s="18"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
@@ -5256,8 +5258,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}">
-    <filterColumn colId="11">
-      <filters blank="1"/>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Minas Gerais 2"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K227">
@@ -5278,17 +5282,17 @@
       <selection pane="bottomLeft" activeCell="D536" sqref="D536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="52" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="4" max="4" width="12.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>137</v>
       </c>
@@ -5305,7 +5309,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>141</v>
       </c>
@@ -5322,7 +5326,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>141</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>141</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>141</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>141</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>141</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>141</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>141</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>141</v>
       </c>
@@ -5458,7 +5462,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>141</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>141</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>141</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>141</v>
       </c>
@@ -5526,7 +5530,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>141</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>141</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>141</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>141</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>167</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>167</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>167</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>167</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>167</v>
       </c>
@@ -5679,7 +5683,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>167</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>167</v>
       </c>
@@ -5713,7 +5717,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>167</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>167</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>167</v>
       </c>
@@ -5764,7 +5768,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>167</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>167</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>167</v>
       </c>
@@ -5815,7 +5819,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>167</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>167</v>
       </c>
@@ -5849,7 +5853,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>167</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>167</v>
       </c>
@@ -5883,7 +5887,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>167</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>167</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>167</v>
       </c>
@@ -5934,7 +5938,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>167</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>167</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>167</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>167</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>167</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>167</v>
       </c>
@@ -6036,7 +6040,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>167</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>167</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>167</v>
       </c>
@@ -6087,7 +6091,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>167</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>167</v>
       </c>
@@ -6121,7 +6125,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>167</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>167</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>167</v>
       </c>
@@ -6172,7 +6176,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>167</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>167</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>167</v>
       </c>
@@ -6223,7 +6227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>167</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>167</v>
       </c>
@@ -6257,7 +6261,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>167</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>167</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>167</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>196</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>196</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>196</v>
       </c>
@@ -6359,7 +6363,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>196</v>
       </c>
@@ -6376,7 +6380,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>196</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>196</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>196</v>
       </c>
@@ -6427,7 +6431,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>196</v>
       </c>
@@ -6444,7 +6448,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>196</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>196</v>
       </c>
@@ -6478,7 +6482,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>196</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>196</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>196</v>
       </c>
@@ -6529,7 +6533,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>196</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>196</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>196</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>196</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>196</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>196</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>196</v>
       </c>
@@ -6648,7 +6652,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>196</v>
       </c>
@@ -6665,7 +6669,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>196</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>196</v>
       </c>
@@ -6699,7 +6703,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>196</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>196</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>196</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>196</v>
       </c>
@@ -6767,7 +6771,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>196</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>196</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>196</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>196</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>196</v>
       </c>
@@ -6852,7 +6856,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>196</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>200</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>200</v>
       </c>
@@ -6903,7 +6907,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>200</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>200</v>
       </c>
@@ -6937,7 +6941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>200</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>200</v>
       </c>
@@ -6971,7 +6975,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>200</v>
       </c>
@@ -6988,7 +6992,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>200</v>
       </c>
@@ -7005,7 +7009,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>200</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>200</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>200</v>
       </c>
@@ -7056,7 +7060,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>200</v>
       </c>
@@ -7073,7 +7077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>200</v>
       </c>
@@ -7090,7 +7094,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>200</v>
       </c>
@@ -7107,7 +7111,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>200</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>200</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>200</v>
       </c>
@@ -7158,7 +7162,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>200</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>200</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>200</v>
       </c>
@@ -7209,7 +7213,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>200</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>200</v>
       </c>
@@ -7243,7 +7247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>200</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>202</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>202</v>
       </c>
@@ -7294,7 +7298,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>202</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>202</v>
       </c>
@@ -7328,7 +7332,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>202</v>
       </c>
@@ -7345,7 +7349,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>202</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>202</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>202</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>202</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>202</v>
       </c>
@@ -7430,7 +7434,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>202</v>
       </c>
@@ -7447,7 +7451,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>202</v>
       </c>
@@ -7464,7 +7468,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>202</v>
       </c>
@@ -7481,7 +7485,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>202</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>202</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>202</v>
       </c>
@@ -7532,7 +7536,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>202</v>
       </c>
@@ -7549,7 +7553,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>204</v>
       </c>
@@ -7566,7 +7570,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>204</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>204</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>204</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>204</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>204</v>
       </c>
@@ -7651,7 +7655,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>204</v>
       </c>
@@ -7668,7 +7672,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>204</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>204</v>
       </c>
@@ -7702,7 +7706,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>204</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>204</v>
       </c>
@@ -7736,7 +7740,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>204</v>
       </c>
@@ -7753,7 +7757,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>204</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>204</v>
       </c>
@@ -7787,7 +7791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>206</v>
       </c>
@@ -7804,7 +7808,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>206</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>206</v>
       </c>
@@ -7838,7 +7842,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>206</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>206</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>206</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>206</v>
       </c>
@@ -7906,7 +7910,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>206</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>206</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>206</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>206</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>206</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>206</v>
       </c>
@@ -8008,7 +8012,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>206</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>206</v>
       </c>
@@ -8042,7 +8046,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>206</v>
       </c>
@@ -8059,7 +8063,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>206</v>
       </c>
@@ -8076,7 +8080,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>206</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>208</v>
       </c>
@@ -8110,7 +8114,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>208</v>
       </c>
@@ -8127,7 +8131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>208</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>208</v>
       </c>
@@ -8161,7 +8165,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>208</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>208</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>208</v>
       </c>
@@ -8212,7 +8216,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>208</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>209</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>209</v>
       </c>
@@ -8263,7 +8267,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>209</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>209</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>209</v>
       </c>
@@ -8314,7 +8318,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>209</v>
       </c>
@@ -8331,7 +8335,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>209</v>
       </c>
@@ -8348,7 +8352,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>209</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>209</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>209</v>
       </c>
@@ -8399,7 +8403,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>211</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>211</v>
       </c>
@@ -8433,7 +8437,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>211</v>
       </c>
@@ -8450,7 +8454,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>211</v>
       </c>
@@ -8467,7 +8471,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>211</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>211</v>
       </c>
@@ -8501,7 +8505,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>211</v>
       </c>
@@ -8518,7 +8522,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>211</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>211</v>
       </c>
@@ -8552,7 +8556,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>211</v>
       </c>
@@ -8569,7 +8573,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>211</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>211</v>
       </c>
@@ -8603,7 +8607,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>211</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>211</v>
       </c>
@@ -8637,7 +8641,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>211</v>
       </c>
@@ -8654,7 +8658,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>211</v>
       </c>
@@ -8671,7 +8675,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>211</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>211</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>211</v>
       </c>
@@ -8722,7 +8726,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>214</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>214</v>
       </c>
@@ -8756,7 +8760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>214</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>214</v>
       </c>
@@ -8790,7 +8794,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>214</v>
       </c>
@@ -8807,7 +8811,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>214</v>
       </c>
@@ -8824,7 +8828,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>214</v>
       </c>
@@ -8841,7 +8845,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>214</v>
       </c>
@@ -8858,7 +8862,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>214</v>
       </c>
@@ -8875,7 +8879,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>214</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>214</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>214</v>
       </c>
@@ -8926,7 +8930,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>216</v>
       </c>
@@ -8943,7 +8947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>216</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>216</v>
       </c>
@@ -8977,7 +8981,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>216</v>
       </c>
@@ -8994,7 +8998,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>216</v>
       </c>
@@ -9011,7 +9015,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>216</v>
       </c>
@@ -9028,7 +9032,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>216</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>216</v>
       </c>
@@ -9062,7 +9066,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>216</v>
       </c>
@@ -9079,7 +9083,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>216</v>
       </c>
@@ -9096,7 +9100,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>216</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>216</v>
       </c>
@@ -9130,7 +9134,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>216</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>216</v>
       </c>
@@ -9164,7 +9168,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>216</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>216</v>
       </c>
@@ -9198,7 +9202,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>216</v>
       </c>
@@ -9215,7 +9219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>216</v>
       </c>
@@ -9232,7 +9236,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>216</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>216</v>
       </c>
@@ -9266,7 +9270,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>216</v>
       </c>
@@ -9283,7 +9287,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>216</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>216</v>
       </c>
@@ -9317,7 +9321,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>218</v>
       </c>
@@ -9334,7 +9338,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>218</v>
       </c>
@@ -9351,7 +9355,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>218</v>
       </c>
@@ -9368,7 +9372,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>218</v>
       </c>
@@ -9385,7 +9389,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>218</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>218</v>
       </c>
@@ -9419,7 +9423,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
         <v>218</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>218</v>
       </c>
@@ -9453,7 +9457,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>218</v>
       </c>
@@ -9470,7 +9474,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>218</v>
       </c>
@@ -9487,7 +9491,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>218</v>
       </c>
@@ -9504,7 +9508,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>218</v>
       </c>
@@ -9521,7 +9525,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>218</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>218</v>
       </c>
@@ -9555,7 +9559,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>218</v>
       </c>
@@ -9572,7 +9576,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>218</v>
       </c>
@@ -9589,7 +9593,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>218</v>
       </c>
@@ -9606,7 +9610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>218</v>
       </c>
@@ -9623,7 +9627,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
         <v>218</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
         <v>218</v>
       </c>
@@ -9657,7 +9661,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="9" t="s">
         <v>218</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
         <v>218</v>
       </c>
@@ -9691,7 +9695,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
         <v>218</v>
       </c>
@@ -9708,7 +9712,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
         <v>218</v>
       </c>
@@ -9725,7 +9729,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>218</v>
       </c>
@@ -9742,7 +9746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>218</v>
       </c>
@@ -9759,7 +9763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>218</v>
       </c>
@@ -9776,7 +9780,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>218</v>
       </c>
@@ -9793,7 +9797,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>218</v>
       </c>
@@ -9810,7 +9814,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>218</v>
       </c>
@@ -9827,7 +9831,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>218</v>
       </c>
@@ -9844,7 +9848,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>218</v>
       </c>
@@ -9861,7 +9865,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>220</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>220</v>
       </c>
@@ -9895,7 +9899,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>220</v>
       </c>
@@ -9912,7 +9916,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>220</v>
       </c>
@@ -9929,7 +9933,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>220</v>
       </c>
@@ -9946,7 +9950,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>220</v>
       </c>
@@ -9963,7 +9967,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
         <v>220</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>220</v>
       </c>
@@ -9997,7 +10001,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
         <v>220</v>
       </c>
@@ -10014,7 +10018,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>220</v>
       </c>
@@ -10031,7 +10035,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
         <v>220</v>
       </c>
@@ -10048,7 +10052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>220</v>
       </c>
@@ -10065,7 +10069,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
         <v>220</v>
       </c>
@@ -10082,7 +10086,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>220</v>
       </c>
@@ -10099,7 +10103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
         <v>220</v>
       </c>
@@ -10116,7 +10120,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
         <v>220</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
         <v>220</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
         <v>220</v>
       </c>
@@ -10167,7 +10171,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
         <v>220</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
         <v>220</v>
       </c>
@@ -10201,7 +10205,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
         <v>220</v>
       </c>
@@ -10218,7 +10222,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>220</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
         <v>220</v>
       </c>
@@ -10252,7 +10256,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>220</v>
       </c>
@@ -10269,7 +10273,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
         <v>222</v>
       </c>
@@ -10286,7 +10290,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
         <v>222</v>
       </c>
@@ -10303,7 +10307,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="9" t="s">
         <v>222</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
         <v>222</v>
       </c>
@@ -10337,7 +10341,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="9" t="s">
         <v>222</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
         <v>222</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
         <v>222</v>
       </c>
@@ -10388,7 +10392,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
         <v>222</v>
       </c>
@@ -10405,7 +10409,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="9" t="s">
         <v>222</v>
       </c>
@@ -10422,7 +10426,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
         <v>222</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="9" t="s">
         <v>222</v>
       </c>
@@ -10456,7 +10460,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
         <v>222</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="9" t="s">
         <v>222</v>
       </c>
@@ -10490,7 +10494,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
         <v>222</v>
       </c>
@@ -10507,7 +10511,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="9" t="s">
         <v>222</v>
       </c>
@@ -10524,7 +10528,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
         <v>222</v>
       </c>
@@ -10541,7 +10545,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="9" t="s">
         <v>222</v>
       </c>
@@ -10558,7 +10562,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
         <v>222</v>
       </c>
@@ -10575,7 +10579,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
         <v>222</v>
       </c>
@@ -10592,7 +10596,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
         <v>222</v>
       </c>
@@ -10609,7 +10613,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
         <v>222</v>
       </c>
@@ -10626,7 +10630,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>222</v>
       </c>
@@ -10643,7 +10647,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
         <v>222</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
         <v>222</v>
       </c>
@@ -10677,7 +10681,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
         <v>222</v>
       </c>
@@ -10694,7 +10698,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>222</v>
       </c>
@@ -10711,7 +10715,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="9" t="s">
         <v>222</v>
       </c>
@@ -10728,7 +10732,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
         <v>222</v>
       </c>
@@ -10745,7 +10749,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
         <v>222</v>
       </c>
@@ -10762,7 +10766,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
         <v>224</v>
       </c>
@@ -10779,7 +10783,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="9" t="s">
         <v>224</v>
       </c>
@@ -10796,7 +10800,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="9" t="s">
         <v>224</v>
       </c>
@@ -10813,7 +10817,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="9" t="s">
         <v>224</v>
       </c>
@@ -10830,7 +10834,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="9" t="s">
         <v>224</v>
       </c>
@@ -10847,7 +10851,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="9" t="s">
         <v>224</v>
       </c>
@@ -10864,7 +10868,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="9" t="s">
         <v>224</v>
       </c>
@@ -10881,7 +10885,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="9" t="s">
         <v>226</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="9" t="s">
         <v>226</v>
       </c>
@@ -10915,7 +10919,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="9" t="s">
         <v>226</v>
       </c>
@@ -10932,7 +10936,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="9" t="s">
         <v>226</v>
       </c>
@@ -10949,7 +10953,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="9" t="s">
         <v>226</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="9" t="s">
         <v>226</v>
       </c>
@@ -10983,7 +10987,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
         <v>226</v>
       </c>
@@ -11000,7 +11004,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>226</v>
       </c>
@@ -11017,7 +11021,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
         <v>226</v>
       </c>
@@ -11034,7 +11038,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="9" t="s">
         <v>226</v>
       </c>
@@ -11051,7 +11055,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9" t="s">
         <v>226</v>
       </c>
@@ -11068,7 +11072,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
         <v>226</v>
       </c>
@@ -11085,7 +11089,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="9" t="s">
         <v>226</v>
       </c>
@@ -11102,7 +11106,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
         <v>226</v>
       </c>
@@ -11119,7 +11123,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9" t="s">
         <v>226</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
         <v>226</v>
       </c>
@@ -11153,7 +11157,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="9" t="s">
         <v>226</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
         <v>226</v>
       </c>
@@ -11187,7 +11191,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9" t="s">
         <v>226</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
         <v>226</v>
       </c>
@@ -11221,7 +11225,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>226</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
         <v>226</v>
       </c>
@@ -11255,7 +11259,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
         <v>226</v>
       </c>
@@ -11272,7 +11276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>226</v>
       </c>
@@ -11289,7 +11293,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="9" t="s">
         <v>226</v>
       </c>
@@ -11306,7 +11310,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="9" t="s">
         <v>226</v>
       </c>
@@ -11323,7 +11327,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
         <v>226</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>226</v>
       </c>
@@ -11357,7 +11361,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
         <v>226</v>
       </c>
@@ -11374,7 +11378,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>226</v>
       </c>
@@ -11391,7 +11395,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
         <v>226</v>
       </c>
@@ -11408,7 +11412,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>226</v>
       </c>
@@ -11425,7 +11429,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
         <v>226</v>
       </c>
@@ -11442,7 +11446,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>226</v>
       </c>
@@ -11459,7 +11463,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
         <v>226</v>
       </c>
@@ -11476,7 +11480,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>226</v>
       </c>
@@ -11493,7 +11497,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
         <v>226</v>
       </c>
@@ -11510,7 +11514,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>226</v>
       </c>
@@ -11527,7 +11531,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
         <v>226</v>
       </c>
@@ -11544,7 +11548,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>230</v>
       </c>
@@ -11561,7 +11565,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
         <v>230</v>
       </c>
@@ -11578,7 +11582,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>230</v>
       </c>
@@ -11595,7 +11599,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
         <v>230</v>
       </c>
@@ -11612,7 +11616,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>230</v>
       </c>
@@ -11629,7 +11633,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
         <v>230</v>
       </c>
@@ -11646,7 +11650,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>230</v>
       </c>
@@ -11663,7 +11667,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
         <v>230</v>
       </c>
@@ -11680,7 +11684,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>230</v>
       </c>
@@ -11697,7 +11701,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
         <v>230</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>230</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
         <v>230</v>
       </c>
@@ -11748,7 +11752,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>230</v>
       </c>
@@ -11765,7 +11769,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="9" t="s">
         <v>230</v>
       </c>
@@ -11782,7 +11786,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>230</v>
       </c>
@@ -11799,7 +11803,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
         <v>230</v>
       </c>
@@ -11816,7 +11820,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>230</v>
       </c>
@@ -11833,7 +11837,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
         <v>230</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>230</v>
       </c>
@@ -11867,7 +11871,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
         <v>230</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>230</v>
       </c>
@@ -11901,7 +11905,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
         <v>230</v>
       </c>
@@ -11918,7 +11922,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>230</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
         <v>230</v>
       </c>
@@ -11952,7 +11956,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
         <v>230</v>
       </c>
@@ -11969,7 +11973,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="9" t="s">
         <v>230</v>
       </c>
@@ -11986,7 +11990,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
         <v>230</v>
       </c>
@@ -12003,7 +12007,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
         <v>230</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
         <v>230</v>
       </c>
@@ -12037,7 +12041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
         <v>230</v>
       </c>
@@ -12054,7 +12058,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>230</v>
       </c>
@@ -12071,7 +12075,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="9" t="s">
         <v>230</v>
       </c>
@@ -12088,7 +12092,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9" t="s">
         <v>230</v>
       </c>
@@ -12105,7 +12109,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9" t="s">
         <v>230</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>230</v>
       </c>
@@ -12139,7 +12143,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="9" t="s">
         <v>230</v>
       </c>
@@ -12156,7 +12160,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>230</v>
       </c>
@@ -12173,7 +12177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
         <v>230</v>
       </c>
@@ -12190,7 +12194,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>232</v>
       </c>
@@ -12207,7 +12211,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="9" t="s">
         <v>232</v>
       </c>
@@ -12224,7 +12228,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="9" t="s">
         <v>232</v>
       </c>
@@ -12241,7 +12245,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="9" t="s">
         <v>232</v>
       </c>
@@ -12258,7 +12262,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="9" t="s">
         <v>232</v>
       </c>
@@ -12275,7 +12279,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="9" t="s">
         <v>232</v>
       </c>
@@ -12292,7 +12296,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
         <v>232</v>
       </c>
@@ -12309,7 +12313,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="9" t="s">
         <v>232</v>
       </c>
@@ -12326,7 +12330,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="9" t="s">
         <v>232</v>
       </c>
@@ -12343,7 +12347,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="9" t="s">
         <v>232</v>
       </c>
@@ -12360,7 +12364,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9" t="s">
         <v>232</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="9" t="s">
         <v>232</v>
       </c>
@@ -12394,7 +12398,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="9" t="s">
         <v>232</v>
       </c>
@@ -12411,7 +12415,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="9" t="s">
         <v>232</v>
       </c>
@@ -12428,7 +12432,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
         <v>232</v>
       </c>
@@ -12445,7 +12449,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="9" t="s">
         <v>232</v>
       </c>
@@ -12462,7 +12466,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="9" t="s">
         <v>232</v>
       </c>
@@ -12479,7 +12483,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="9" t="s">
         <v>232</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="9" t="s">
         <v>232</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="9" t="s">
         <v>232</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
         <v>234</v>
       </c>
@@ -12547,7 +12551,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="9" t="s">
         <v>234</v>
       </c>
@@ -12564,7 +12568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="9" t="s">
         <v>234</v>
       </c>
@@ -12581,7 +12585,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="9" t="s">
         <v>234</v>
       </c>
@@ -12598,7 +12602,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="9" t="s">
         <v>234</v>
       </c>
@@ -12615,7 +12619,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="9" t="s">
         <v>234</v>
       </c>
@@ -12632,7 +12636,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
         <v>234</v>
       </c>
@@ -12649,7 +12653,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="9" t="s">
         <v>234</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
         <v>234</v>
       </c>
@@ -12683,7 +12687,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="9" t="s">
         <v>234</v>
       </c>
@@ -12700,7 +12704,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="9" t="s">
         <v>234</v>
       </c>
@@ -12717,7 +12721,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="9" t="s">
         <v>234</v>
       </c>
@@ -12734,7 +12738,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="9" t="s">
         <v>234</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="9" t="s">
         <v>234</v>
       </c>
@@ -12768,7 +12772,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="9" t="s">
         <v>234</v>
       </c>
@@ -12785,7 +12789,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="9" t="s">
         <v>234</v>
       </c>
@@ -12802,7 +12806,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="9" t="s">
         <v>234</v>
       </c>
@@ -12819,7 +12823,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="9" t="s">
         <v>234</v>
       </c>
@@ -12836,7 +12840,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="9" t="s">
         <v>234</v>
       </c>
@@ -12853,7 +12857,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="9" t="s">
         <v>247</v>
       </c>
@@ -12870,7 +12874,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="9" t="s">
         <v>247</v>
       </c>
@@ -12887,7 +12891,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="9" t="s">
         <v>247</v>
       </c>
@@ -12904,7 +12908,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="9" t="s">
         <v>247</v>
       </c>
@@ -12921,7 +12925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="9" t="s">
         <v>247</v>
       </c>
@@ -12938,7 +12942,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="9" t="s">
         <v>247</v>
       </c>
@@ -12955,7 +12959,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="9" t="s">
         <v>247</v>
       </c>
@@ -12972,7 +12976,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="9" t="s">
         <v>247</v>
       </c>
@@ -12989,7 +12993,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="9" t="s">
         <v>247</v>
       </c>
@@ -13006,7 +13010,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="9" t="s">
         <v>247</v>
       </c>
@@ -13023,7 +13027,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="9" t="s">
         <v>247</v>
       </c>
@@ -13040,7 +13044,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="9" t="s">
         <v>247</v>
       </c>
@@ -13057,7 +13061,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="9" t="s">
         <v>247</v>
       </c>
@@ -13074,7 +13078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="9" t="s">
         <v>247</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="9" t="s">
         <v>247</v>
       </c>
@@ -13108,7 +13112,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="9" t="s">
         <v>247</v>
       </c>
@@ -13125,7 +13129,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="9" t="s">
         <v>247</v>
       </c>
@@ -13142,7 +13146,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="9" t="s">
         <v>247</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="9" t="s">
         <v>247</v>
       </c>
@@ -13176,7 +13180,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="9" t="s">
         <v>247</v>
       </c>
@@ -13193,7 +13197,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="9" t="s">
         <v>247</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="9" t="s">
         <v>247</v>
       </c>
@@ -13227,7 +13231,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="9" t="s">
         <v>247</v>
       </c>
@@ -13244,7 +13248,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="9" t="s">
         <v>247</v>
       </c>
@@ -13261,7 +13265,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="9" t="s">
         <v>247</v>
       </c>
@@ -13278,7 +13282,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="9" t="s">
         <v>247</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="9" t="s">
         <v>247</v>
       </c>
@@ -13312,7 +13316,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="9" t="s">
         <v>247</v>
       </c>
@@ -13329,7 +13333,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="9" t="s">
         <v>247</v>
       </c>
@@ -13346,7 +13350,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="9" t="s">
         <v>247</v>
       </c>
@@ -13363,7 +13367,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="9" t="s">
         <v>284</v>
       </c>
@@ -13380,7 +13384,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="9" t="s">
         <v>284</v>
       </c>
@@ -13397,7 +13401,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="9" t="s">
         <v>284</v>
       </c>
@@ -13414,7 +13418,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="9" t="s">
         <v>284</v>
       </c>
@@ -13431,7 +13435,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="9" t="s">
         <v>284</v>
       </c>
@@ -13448,7 +13452,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="9" t="s">
         <v>284</v>
       </c>
@@ -13465,7 +13469,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="9" t="s">
         <v>284</v>
       </c>
@@ -13482,7 +13486,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="9" t="s">
         <v>284</v>
       </c>
@@ -13499,7 +13503,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="9" t="s">
         <v>284</v>
       </c>
@@ -13516,7 +13520,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="9" t="s">
         <v>284</v>
       </c>
@@ -13533,7 +13537,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="9" t="s">
         <v>284</v>
       </c>
@@ -13550,7 +13554,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="9" t="s">
         <v>284</v>
       </c>
@@ -13567,7 +13571,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="9" t="s">
         <v>284</v>
       </c>
@@ -13584,7 +13588,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A489" s="9" t="s">
         <v>291</v>
       </c>
@@ -13601,7 +13605,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="9" t="s">
         <v>291</v>
       </c>
@@ -13618,7 +13622,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="9" t="s">
         <v>291</v>
       </c>
@@ -13635,7 +13639,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="9" t="s">
         <v>291</v>
       </c>
@@ -13652,7 +13656,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="9" t="s">
         <v>291</v>
       </c>
@@ -13669,7 +13673,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="9" t="s">
         <v>291</v>
       </c>
@@ -13686,7 +13690,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="9" t="s">
         <v>291</v>
       </c>
@@ -13703,7 +13707,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="9" t="s">
         <v>291</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="9" t="s">
         <v>291</v>
       </c>
@@ -13737,7 +13741,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="9" t="s">
         <v>291</v>
       </c>
@@ -13754,7 +13758,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="9" t="s">
         <v>291</v>
       </c>
@@ -13771,7 +13775,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="9" t="s">
         <v>291</v>
       </c>
@@ -13788,7 +13792,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="9" t="s">
         <v>291</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="9" t="s">
         <v>291</v>
       </c>
@@ -13822,7 +13826,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="9" t="s">
         <v>291</v>
       </c>
@@ -13839,7 +13843,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="9" t="s">
         <v>291</v>
       </c>
@@ -13856,7 +13860,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="9" t="s">
         <v>291</v>
       </c>
@@ -13873,7 +13877,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="9" t="s">
         <v>291</v>
       </c>
@@ -13890,7 +13894,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="9" t="s">
         <v>291</v>
       </c>
@@ -13907,7 +13911,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="9" t="s">
         <v>291</v>
       </c>
@@ -13924,7 +13928,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="9" t="s">
         <v>291</v>
       </c>
@@ -13941,7 +13945,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="9" t="s">
         <v>291</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="9" t="s">
         <v>291</v>
       </c>
@@ -13975,7 +13979,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="9" t="s">
         <v>300</v>
       </c>
@@ -13992,7 +13996,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="9" t="s">
         <v>300</v>
       </c>
@@ -14009,7 +14013,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="9" t="s">
         <v>300</v>
       </c>
@@ -14026,7 +14030,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="9" t="s">
         <v>300</v>
       </c>
@@ -14043,7 +14047,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="9" t="s">
         <v>300</v>
       </c>
@@ -14060,7 +14064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="9" t="s">
         <v>300</v>
       </c>
@@ -14077,7 +14081,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="9" t="s">
         <v>300</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="9" t="s">
         <v>300</v>
       </c>
@@ -14111,7 +14115,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="9" t="s">
         <v>300</v>
       </c>
@@ -14128,7 +14132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="9" t="s">
         <v>300</v>
       </c>
@@ -14145,7 +14149,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="9" t="s">
         <v>300</v>
       </c>
@@ -14162,7 +14166,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="9" t="s">
         <v>300</v>
       </c>
@@ -14179,7 +14183,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="9" t="s">
         <v>300</v>
       </c>
@@ -14196,7 +14200,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="9" t="s">
         <v>300</v>
       </c>
@@ -14213,7 +14217,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="9" t="s">
         <v>300</v>
       </c>
@@ -14230,7 +14234,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="9" t="s">
         <v>300</v>
       </c>
@@ -14247,7 +14251,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="9" t="s">
         <v>300</v>
       </c>
@@ -14264,7 +14268,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="9" t="s">
         <v>300</v>
       </c>
@@ -14281,7 +14285,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="9" t="s">
         <v>300</v>
       </c>
@@ -14298,7 +14302,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="9" t="s">
         <v>300</v>
       </c>
@@ -14315,7 +14319,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="9" t="s">
         <v>300</v>
       </c>
@@ -14332,7 +14336,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="9" t="s">
         <v>300</v>
       </c>
@@ -14349,7 +14353,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="9" t="s">
         <v>300</v>
       </c>
@@ -14366,7 +14370,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="9" t="s">
         <v>300</v>
       </c>
@@ -14383,7 +14387,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="9" t="s">
         <v>300</v>
       </c>
@@ -14400,7 +14404,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="9" t="s">
         <v>300</v>
       </c>
@@ -14417,7 +14421,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="9" t="s">
         <v>300</v>
       </c>
@@ -14434,7 +14438,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="9" t="s">
         <v>302</v>
       </c>
@@ -14451,7 +14455,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="9" t="s">
         <v>302</v>
       </c>
@@ -14468,7 +14472,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="9" t="s">
         <v>302</v>
       </c>
@@ -14485,7 +14489,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="9" t="s">
         <v>302</v>
       </c>
@@ -14502,7 +14506,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="9" t="s">
         <v>302</v>
       </c>
@@ -14519,7 +14523,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="9" t="s">
         <v>302</v>
       </c>
@@ -14536,7 +14540,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="9" t="s">
         <v>302</v>
       </c>
@@ -14553,7 +14557,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="9" t="s">
         <v>302</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="9" t="s">
         <v>302</v>
       </c>
@@ -14587,7 +14591,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="9" t="s">
         <v>302</v>
       </c>
@@ -14604,7 +14608,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="9" t="s">
         <v>302</v>
       </c>
@@ -14621,7 +14625,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="9" t="s">
         <v>302</v>
       </c>
@@ -14638,7 +14642,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="9" t="s">
         <v>302</v>
       </c>
@@ -14655,7 +14659,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="9" t="s">
         <v>302</v>
       </c>
@@ -14672,7 +14676,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="9" t="s">
         <v>302</v>
       </c>
@@ -14689,7 +14693,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="9" t="s">
         <v>302</v>
       </c>
@@ -14706,7 +14710,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="9" t="s">
         <v>302</v>
       </c>
@@ -14723,7 +14727,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="9" t="s">
         <v>302</v>
       </c>
@@ -14740,7 +14744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="9" t="s">
         <v>302</v>
       </c>
@@ -14757,7 +14761,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="9" t="s">
         <v>302</v>
       </c>
@@ -14774,7 +14778,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="9" t="s">
         <v>302</v>
       </c>
@@ -14791,7 +14795,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="9" t="s">
         <v>302</v>
       </c>
@@ -14808,7 +14812,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="9" t="s">
         <v>302</v>
       </c>
@@ -14825,7 +14829,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A562" s="9" t="s">
         <v>308</v>
       </c>
@@ -14842,7 +14846,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="9" t="s">
         <v>308</v>
       </c>
@@ -14859,7 +14863,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="9" t="s">
         <v>308</v>
       </c>
@@ -14876,7 +14880,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="9" t="s">
         <v>308</v>
       </c>
@@ -14893,7 +14897,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="9" t="s">
         <v>308</v>
       </c>
@@ -14910,7 +14914,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="9" t="s">
         <v>308</v>
       </c>
@@ -14927,7 +14931,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="9" t="s">
         <v>308</v>
       </c>
@@ -14944,7 +14948,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="9" t="s">
         <v>308</v>
       </c>
@@ -14961,7 +14965,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="9" t="s">
         <v>308</v>
       </c>
@@ -14978,7 +14982,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="9" t="s">
         <v>308</v>
       </c>
@@ -14995,7 +14999,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="9" t="s">
         <v>308</v>
       </c>
@@ -15012,7 +15016,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="9" t="s">
         <v>308</v>
       </c>
@@ -15029,7 +15033,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="9" t="s">
         <v>308</v>
       </c>
@@ -15046,7 +15050,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="9" t="s">
         <v>310</v>
       </c>
@@ -15063,7 +15067,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="9" t="s">
         <v>308</v>
       </c>
@@ -15080,7 +15084,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="9" t="s">
         <v>308</v>
       </c>
@@ -15097,7 +15101,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="9" t="s">
         <v>308</v>
       </c>
@@ -15114,7 +15118,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="9" t="s">
         <v>310</v>
       </c>
@@ -15131,7 +15135,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="9" t="s">
         <v>308</v>
       </c>
@@ -15148,7 +15152,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="9" t="s">
         <v>308</v>
       </c>
@@ -15165,7 +15169,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="9" t="s">
         <v>308</v>
       </c>
@@ -15182,7 +15186,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="9" t="s">
         <v>310</v>
       </c>
@@ -15199,7 +15203,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="9" t="s">
         <v>308</v>
       </c>
@@ -15216,7 +15220,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="9" t="s">
         <v>310</v>
       </c>
@@ -15233,7 +15237,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="9" t="s">
         <v>308</v>
       </c>
@@ -15250,7 +15254,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="9" t="s">
         <v>310</v>
       </c>
@@ -15267,7 +15271,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="9" t="s">
         <v>308</v>
       </c>
@@ -15284,7 +15288,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="9" t="s">
         <v>308</v>
       </c>
@@ -15301,7 +15305,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="9" t="s">
         <v>308</v>
       </c>
@@ -15318,7 +15322,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="9" t="s">
         <v>308</v>
       </c>
@@ -15335,7 +15339,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="9" t="s">
         <v>310</v>
       </c>
@@ -15352,7 +15356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="9" t="s">
         <v>310</v>
       </c>
@@ -15369,7 +15373,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A594" s="9" t="s">
         <v>317</v>
       </c>
@@ -15386,7 +15390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="9" t="s">
         <v>317</v>
       </c>
@@ -15403,7 +15407,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="9" t="s">
         <v>317</v>
       </c>
@@ -15420,7 +15424,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="9" t="s">
         <v>317</v>
       </c>
@@ -15437,7 +15441,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="9" t="s">
         <v>317</v>
       </c>
@@ -15454,7 +15458,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="9" t="s">
         <v>317</v>
       </c>
@@ -15471,7 +15475,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="9" t="s">
         <v>317</v>
       </c>
@@ -15488,7 +15492,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="9" t="s">
         <v>317</v>
       </c>
@@ -15505,7 +15509,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="9" t="s">
         <v>317</v>
       </c>
@@ -15522,7 +15526,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="9" t="s">
         <v>317</v>
       </c>
@@ -15539,7 +15543,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="9" t="s">
         <v>317</v>
       </c>
@@ -15556,7 +15560,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="9" t="s">
         <v>317</v>
       </c>
@@ -15573,7 +15577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="9" t="s">
         <v>317</v>
       </c>
@@ -15590,7 +15594,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="9" t="s">
         <v>317</v>
       </c>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://senadofederal-my.sharepoint.com/personal/rolf_senado_leg_br/Documents/Projetos R/icsap/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="983" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EB06F5D6-2655-4924-9261-6CB43457A218}"/>
+  <xr:revisionPtr revIDLastSave="984" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7D582083-791A-4452-A49E-E83121BAFD09}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3447" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="347">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1148,6 +1148,11 @@
   <si>
     <t>1) Razão de coeficientes
 2) Padronização de coeficientes e Razão de Morbidade Esperada (RMI)</t>
+  </si>
+  <si>
+    <t>Chi quadrado
+Coeficiente de spearman
+Gráfico temporal</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1652,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2606,7 +2611,9 @@
       <c r="H27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="16" t="s">
+        <v>346</v>
+      </c>
       <c r="J27" s="18" t="s">
         <v>48</v>
       </c>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="980" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B4C5F94-B777-4011-A4F6-A8C4F7014C5C}"/>
+  <xr:revisionPtr revIDLastSave="983" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FE1792F-48C1-4DF2-ACD2-981D780C4984}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="346">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1645,9 +1645,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2789,7 +2789,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>276</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>281</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>288</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>294</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>306</v>
       </c>
@@ -2936,8 +2936,11 @@
       <c r="K37" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="L37" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>314</v>
       </c>
@@ -2969,8 +2972,11 @@
       <c r="K38" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="L38" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>321</v>
       </c>
@@ -2998,7 +3004,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -3010,7 +3016,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -3022,7 +3028,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -3034,7 +3040,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -3046,7 +3052,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -3058,7 +3064,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -3070,7 +3076,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -3082,7 +3088,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -3094,7 +3100,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="983" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FE1792F-48C1-4DF2-ACD2-981D780C4984}"/>
+  <xr:revisionPtr revIDLastSave="994" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF45722A-E4C7-4BC8-9F16-E87B40A7539F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="346">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1642,12 +1642,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE712DB-CC69-4EE6-896B-656C736DF159}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -1805,7 +1804,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>240</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>72</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>256</v>
       </c>
@@ -2167,7 +2166,7 @@
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>236</v>
       </c>
@@ -2234,7 +2233,7 @@
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2366,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
@@ -2436,7 +2435,7 @@
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>88</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -2610,9 +2609,14 @@
       <c r="J27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>118</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>261</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>264</v>
       </c>
@@ -2904,7 +2908,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>306</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>314</v>
       </c>
@@ -5261,11 +5265,7 @@
       <c r="J227" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}">
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K227">
     <sortCondition ref="A2:A227"/>
   </sortState>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="994" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF45722A-E4C7-4BC8-9F16-E87B40A7539F}"/>
+  <xr:revisionPtr revIDLastSave="995" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8557BE13-9063-40A0-A123-9B0F6991C798}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="347">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1148,6 +1148,10 @@
   <si>
     <t>1) Razão de coeficientes
 2) Padronização de coeficientes e Razão de Morbidade Esperada (RMI)</t>
+  </si>
+  <si>
+    <t>1) Qui-quadrado
+2) Coeficiente de Spearman</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2605,7 +2609,9 @@
       <c r="H27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="16" t="s">
+        <v>346</v>
+      </c>
       <c r="J27" s="18" t="s">
         <v>48</v>
       </c>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="995" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8557BE13-9063-40A0-A123-9B0F6991C798}"/>
+  <xr:revisionPtr revIDLastSave="999" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CDFFF870-8785-4B2B-9B40-9835F45CE735}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="348">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1152,6 +1152,10 @@
   <si>
     <t>1) Qui-quadrado
 2) Coeficiente de Spearman</t>
+  </si>
+  <si>
+    <t>1) Regressão linear simples
+2) Coeficiente de correlação de Pearson</t>
   </si>
 </sst>
 </file>
@@ -1646,11 +1650,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE712DB-CC69-4EE6-896B-656C736DF159}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1741,7 +1746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -1808,7 +1813,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>240</v>
       </c>
@@ -1846,7 +1851,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>72</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
@@ -1953,7 +1958,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
@@ -1991,7 +1996,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -2103,7 +2108,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>256</v>
       </c>
@@ -2170,7 +2175,7 @@
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>236</v>
       </c>
@@ -2237,7 +2242,7 @@
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2375,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
@@ -2439,7 +2444,7 @@
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>88</v>
       </c>
@@ -2477,7 +2482,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -2584,7 +2589,7 @@
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>96</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="108" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>118</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>261</v>
       </c>
@@ -2732,7 +2737,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>264</v>
       </c>
@@ -2911,10 +2916,15 @@
       <c r="H36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="16"/>
+      <c r="I36" s="16" t="s">
+        <v>347</v>
+      </c>
       <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="K36" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>306</v>
       </c>
@@ -2950,7 +2960,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>314</v>
       </c>
@@ -5271,7 +5281,11 @@
       <c r="J227" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}"/>
+  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}">
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K227">
     <sortCondition ref="A2:A227"/>
   </sortState>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="999" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CDFFF870-8785-4B2B-9B40-9835F45CE735}"/>
+  <xr:revisionPtr revIDLastSave="1018" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{05BE068A-45F9-4D5B-8BFA-56BF6A9187CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="350">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1156,6 +1156,13 @@
   <si>
     <t>1) Regressão linear simples
 2) Coeficiente de correlação de Pearson</t>
+  </si>
+  <si>
+    <t>35 a 74 anos</t>
+  </si>
+  <si>
+    <t>1) Correlação de Pearson
+2) Correlação de Spearman</t>
   </si>
 </sst>
 </file>
@@ -1654,8 +1661,8 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1713,18 +1720,18 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>14</v>
@@ -1738,199 +1745,192 @@
       <c r="H2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="J2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="15"/>
+      <c r="L2" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>28</v>
+        <v>153</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>45</v>
+      <c r="E4" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>46</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>67</v>
+      <c r="A7" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>331</v>
+      </c>
       <c r="J7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>85</v>
@@ -1939,31 +1939,34 @@
         <v>144</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="18" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="18"/>
       <c r="K8" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="84" hidden="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>85</v>
@@ -1975,107 +1978,95 @@
         <v>30</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>327</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I10" s="16"/>
       <c r="J10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>149</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>12</v>
@@ -2084,124 +2075,129 @@
         <v>149</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>258</v>
+        <v>56</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="J13" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="K13" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18" t="s">
@@ -2211,308 +2207,335 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>121</v>
+    <row r="16" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="L17" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="15"/>
+        <v>345</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="L18" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="J19" s="18"/>
+        <v>342</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="K19" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>157</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>47</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="J24" s="18"/>
       <c r="K24" s="18" t="s">
         <v>132</v>
       </c>
@@ -2520,81 +2543,73 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>46</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="J25" s="18"/>
       <c r="K25" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="16"/>
-      <c r="J26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>12</v>
@@ -2603,93 +2618,78 @@
         <v>149</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>346</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I27" s="16"/>
       <c r="J27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="16"/>
-      <c r="J28" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>47</v>
@@ -2701,12 +2701,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>85</v>
@@ -2715,314 +2715,329 @@
         <v>144</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="J30" s="18"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="K30" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>268</v>
+        <v>322</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>334</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I31" s="16"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I32" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>338</v>
+      </c>
       <c r="J32" s="18"/>
       <c r="K32" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>344</v>
+      </c>
       <c r="J33" s="18"/>
       <c r="K33" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="L33" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>287</v>
+        <v>114</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="16"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="J34" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>288</v>
+        <v>118</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>289</v>
+        <v>119</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="I35" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>294</v>
+        <v>121</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>299</v>
+        <v>125</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="16"/>
+      <c r="J36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>304</v>
+        <v>63</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>312</v>
+        <v>65</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18" t="s">
-        <v>132</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="15"/>
       <c r="L37" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="L38" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>321</v>
+        <v>126</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>28</v>
+        <v>128</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="16"/>
-      <c r="J39" s="18"/>
+      <c r="J39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
@@ -5286,8 +5301,8 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K227">
-    <sortCondition ref="A2:A227"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
+    <sortCondition ref="B2:B39"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1018" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{05BE068A-45F9-4D5B-8BFA-56BF6A9187CA}"/>
+  <xr:revisionPtr revIDLastSave="1022" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9EB50E3-EBE3-4551-8459-1C172DEDF95D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="351">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1163,6 +1163,10 @@
   <si>
     <t>1) Correlação de Pearson
 2) Correlação de Spearman</t>
+  </si>
+  <si>
+    <t>1) Estatística descritiva
+2) Correlação</t>
   </si>
 </sst>
 </file>
@@ -1661,8 +1665,8 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2928,11 +2932,15 @@
       <c r="H36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="16"/>
+      <c r="I36" s="16" t="s">
+        <v>350</v>
+      </c>
       <c r="J36" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="18" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">

--- a/Bibliografia/Listagem.xlsx
+++ b/Bibliografia/Listagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1022" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9EB50E3-EBE3-4551-8459-1C172DEDF95D}"/>
+  <xr:revisionPtr revIDLastSave="1027" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58FB0887-6789-4870-97B5-931B877BBD1A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="350">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1163,10 +1163,6 @@
   <si>
     <t>1) Correlação de Pearson
 2) Correlação de Spearman</t>
-  </si>
-  <si>
-    <t>1) Estatística descritiva
-2) Correlação</t>
   </si>
 </sst>
 </file>
@@ -1661,12 +1657,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE712DB-CC69-4EE6-896B-656C736DF159}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1719,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -1929,7 +1924,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>256</v>
       </c>
@@ -1965,7 +1960,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>240</v>
       </c>
@@ -2065,7 +2060,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -2103,7 +2098,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>55</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>243</v>
       </c>
@@ -2175,7 +2170,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>264</v>
       </c>
@@ -2211,7 +2206,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
@@ -2247,7 +2242,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>72</v>
       </c>
@@ -2285,7 +2280,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>306</v>
       </c>
@@ -2321,7 +2316,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="84" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>82</v>
       </c>
@@ -2359,7 +2354,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>88</v>
       </c>
@@ -2397,7 +2392,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>78</v>
       </c>
@@ -2435,7 +2430,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>91</v>
       </c>
@@ -2473,7 +2468,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>96</v>
       </c>
@@ -2511,7 +2506,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>236</v>
       </c>
@@ -2667,7 +2662,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>105</v>
       </c>
@@ -2766,7 +2761,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>261</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>314</v>
       </c>
@@ -2869,7 +2864,7 @@
       </c>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>118</v>
       </c>
@@ -2933,7 +2928,7 @@
         <v>20</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>47</v>
@@ -2941,8 +2936,11 @@
       <c r="K36" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>62</v>
       </c>
@@ -3011,7 +3009,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>126</v>
       </c>
@@ -5304,11 +5302,7 @@
       <c r="J227" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}">
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
     <sortCondition ref="B2:B39"/>
   </sortState>
